--- a/Pull Request Here/Pawn's Items List - 1507341718/Pawn's Items List - 1507341718.xlsx
+++ b/Pull Request Here/Pawn's Items List - 1507341718/Pawn's Items List - 1507341718.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510ABBAD-F769-41AD-9E0A-CE5AD9333B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD92F466-A7B8-41E4-8710-3FAB4EF00FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>소지품 목록</t>
+    <t>소지품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
